--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_6_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_6_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.692608304632476e-05</v>
+        <v>0.002106471215033379</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004377364431050407</v>
+        <v>0.007508572287002756</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.657304330784507</v>
+        <v>4.200872594137925</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.2535543405148264, 9.061054321054188]</t>
+          <t>[1.0104481374449747, 7.391297050830875]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001189943089381362</v>
+        <v>0.010015678487997</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001189943089381362</v>
+        <v>0.010015678487997</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.081789662497386</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.6604213424378491, -0.5031579825569237]</t>
+          <t>[-1.610105544182157, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002743579235411353</v>
+        <v>0.009438904889965904</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0002743579235411353</v>
+        <v>0.009438904889965904</v>
       </c>
       <c r="S2" t="n">
-        <v>13.15081616710003</v>
+        <v>13.16269639131862</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.370768912135965, 14.9308634220641]</t>
+          <t>[11.51245743705022, 14.812935345587015]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.400720720720816</v>
+        <v>3.786646646646737</v>
       </c>
       <c r="X2" t="n">
-        <v>2.046846846846889</v>
+        <v>0.9336936936937144</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.754594594594742</v>
+        <v>6.639599599599761</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.035745381596566e-05</v>
+        <v>9.653556762145854e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004377364431050407</v>
+        <v>0.001631817327551451</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.801531226027995</v>
+        <v>4.768993590219882</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.0218488406522894, 7.581213611403701]</t>
+          <t>[2.1355497806312442, 7.40243739980852]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0007497359448374041</v>
+        <v>0.0004132301852455278</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001189943089381362</v>
+        <v>0.0008264603704910556</v>
       </c>
       <c r="O3" t="n">
-        <v>2.496921488438735</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.9434477076261176, 3.050395269251352]</t>
+          <t>[2.245342497160273, 3.5535532518082746]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>12.66694947324729</v>
+        <v>13.85097417045925</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.223620647468925, 14.110278299025664]</t>
+          <t>[12.327696567556677, 15.374251773361815]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.44438438438457</v>
+        <v>12.94108108108125</v>
       </c>
       <c r="X3" t="n">
-        <v>12.33291291291307</v>
+        <v>10.4394594594596</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.55585585585607</v>
+        <v>15.44270270270291</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_6_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_6_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002106471215033379</v>
+        <v>1.856063785199424e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007508572287002756</v>
+        <v>0.000249221171601419</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.200872594137925</v>
+        <v>5.73479355033697</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.0104481374449747, 7.391297050830875]</t>
+          <t>[2.5076257991196513, 8.96196130155429]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.010015678487997</v>
+        <v>0.0005369872656646457</v>
       </c>
       <c r="N2" t="n">
-        <v>0.010015678487997</v>
+        <v>0.0008982256595193583</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-0.8302106712189241</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.610105544182157, -0.22642109215061534]</t>
+          <t>[-1.3711055024676169, -0.28931583997023136]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.009438904889965904</v>
+        <v>0.002729353107570498</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009438904889965904</v>
+        <v>0.002729353107570498</v>
       </c>
       <c r="S2" t="n">
-        <v>13.16269639131862</v>
+        <v>13.01579801843535</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.51245743705022, 14.812935345587015]</t>
+          <t>[11.329772798762171, 14.701823238108531]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.786646646646737</v>
+        <v>3.373333333333406</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9336936936937144</v>
+        <v>1.175555555555582</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.639599599599761</v>
+        <v>5.57111111111123</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>9.653556762145854e-05</v>
+        <v>7.568603412611008e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001631817327551451</v>
+        <v>0.0004028701742447056</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.768993590219882</v>
+        <v>4.541623937858279</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.1355497806312442, 7.40243739980852]</t>
+          <t>[1.8722057680402902, 7.211042107676267]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0004132301852455278</v>
+        <v>0.0008982256595193583</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0008264603704910556</v>
+        <v>0.0008982256595193583</v>
       </c>
       <c r="O3" t="n">
-        <v>2.899447874484274</v>
+        <v>-2.80510575275485</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.245342497160273, 3.5535532518082746]</t>
+          <t>[-3.421474281387081, -2.1887372241226193]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.85097417045925</v>
+        <v>11.93109815960269</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.327696567556677, 15.374251773361815]</t>
+          <t>[10.502367174769468, 13.359829144435906]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.94108108108125</v>
+        <v>10.83525525525541</v>
       </c>
       <c r="X3" t="n">
-        <v>10.4394594594596</v>
+        <v>8.45441441441454</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.44270270270291</v>
+        <v>13.21609609609629</v>
       </c>
     </row>
   </sheetData>
